--- a/public/rigmanager-import.xlsx
+++ b/public/rigmanager-import.xlsx
@@ -1725,7 +1725,7 @@
     <r>
       <t xml:space="preserve">
 Изменение структуры файла делает невозможным автоматический импорт. Т.е. добавлять/удалять колонки/страницы, менять местами или двигать уже созданные ячейки - крайне не рекомендуется.
-Заполнять форму разрешается на ячейках A3:V502. </t>
+Заполнять форму разрешается на ячейках A3:W502. </t>
     </r>
     <r>
       <rPr>
@@ -1750,7 +1750,7 @@
       <t xml:space="preserve">
 Форма рассчитана на импорт от 1-го до 500-а объявлений.
 Каждая строка представляет собой отдельное объявление.
-Первое объявление должно быть помещено в ячейки A3:V3.</t>
+Первое объявление должно быть помещено в ячейки A3:W3.</t>
     </r>
     <r>
       <rPr/>
@@ -1758,20 +1758,18 @@
 </t>
     </r>
     <r>
-      <t>Форма будет принята только по факту соблюдений всех правил во всех объявлениях.
+      <t xml:space="preserve">Форма будет принята только по факту соблюдений всех правил во всех объявлениях.
 Алгоритм анализирует форму построчно, при обнаружении ошибки анализ будет остановлен.
-После импорта формы вам будет указано в каком объявлении была обнаружена ошибка.
-Форма должна быть заполненна на одном языке.
-Ниже</t>
+После импорта формы с ошибкой вам будет указано в каком объявлении была обнаружена ошибка.
+Форма должна быть заполнена на одном языке (Rus/Ukr/Eng).
+Добавить изображения, установить статус "Срочно" и изменить авто-перевод вы сможете для каждого объявления вручную через страницу правки объявления на сайте.
+</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Oswald"/>
+        <sz val="14.0"/>
       </rPr>
-      <t xml:space="preserve"> детальная инструкця</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> к заполнению каждого поля.</t>
+      <t>Ниже детальная инструкця к заполнению каждого поля:</t>
     </r>
   </si>
   <si>
@@ -19382,13 +19380,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:AD2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:A12"/>
@@ -19418,7 +19416,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink display="Общие правила заполнения формы:&#10;&#10;Изменение структуры файла делает невозможным автоматический импорт. Т.е. добавлять/удалять колонки/страницы, менять местами или двигать уже созданные ячейки - крайне не рекомендуется.&#10;Заполнять форму разрешается на ячейках A3:V502. см. лист &quot;Форма для заполнения&quot;.&#10;Форма рассчитана на импорт от 1-го до 500-а объявлений.&#10;Каждая строка представляет собой отдельное объявление.&#10;Первое объявление должно быть помещено в ячейки A3:V3.&#10;Форма будет принята только по факту соблюдений всех правил во всех объявлениях.&#10;Алгоритм анализирует форму построчно, при обнаружении ошибки анализ будет остановлен.&#10;После импорта формы вам будет указано в каком объявлении была обнаружена ошибка.&#10;Форма должна быть заполненна на одном языке.&#10;&#10;Ниже детальная инструкця к заполнению каждого поля." location="Форма для заполнения!A1" ref="A2"/>
+    <hyperlink display="Общие правила заполнения формы:&#10;&#10;Изменение структуры файла делает невозможным автоматический импорт. Т.е. добавлять/удалять колонки/страницы, менять местами или двигать уже созданные ячейки - крайне не рекомендуется.&#10;Заполнять форму разрешается на ячейках A3:W502. см. лист &quot;Форма для заполнения&quot;.&#10;Форма рассчитана на импорт от 1-го до 500-а объявлений.&#10;Каждая строка представляет собой отдельное объявление.&#10;Первое объявление должно быть помещено в ячейки A3:W3.&#10;Форма будет принята только по факту соблюдений всех правил во всех объявлениях.&#10;Алгоритм анализирует форму построчно, при обнаружении ошибки анализ будет остановлен.&#10;После импорта формы с ошибкой вам будет указано в каком объявлении была обнаружена ошибка.&#10;Форма должна быть заполнена на одном языке (Rus/Ukr/Eng).&#10;Добавить изображения, установить статус &quot;Срочно&quot; и изменить авто-перевод вы сможете для каждого объявления вручную через страницу правки объявления на сайте.&#10;&#10;&#10;Ниже детальная инструкця к заполнению каждого поля:" location="Форма для заполнения!A1" ref="A2"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public/rigmanager-import.xlsx
+++ b/public/rigmanager-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Code/rigmanager/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAFC579-F112-3741-9E4C-4913CCB3CA84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22255AE3-30BB-5B42-BE70-B6EBE1D70CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-19960" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Форма для заполнения" sheetId="1" r:id="rId1"/>
@@ -3668,12 +3668,6 @@
   </si>
   <si>
     <t>Импорт Экспорт</t>
-  </si>
-  <si>
-    <t>Если не понятно, за что указана цена, можете указать эту информацию в описании. 
-Формат: 0000.00
-Максимум 50 цифр.
-После цены, без пробела, укажите валюту - 'USD' или 'UAH'. Пример: '999.9USD'</t>
   </si>
   <si>
     <t xml:space="preserve">Введите любой знак, если хотите указать что это сделка будет проходить на условиях импорта/экспорта </t>
@@ -3857,6 +3851,12 @@
     <t>Здесь Вы можете указать количество единиц товара.
 Пример: "531 шт."
 Максимум 15 символов.</t>
+  </si>
+  <si>
+    <t>Если не понятно, за что указана цена, можете указать эту информацию в описании. 
+Формат: 0000.00
+Максимум 15 цифр.
+После цены, без пробела, укажите валюту - 'USD' или 'UAH'. Пример: '999.9USD'</t>
   </si>
 </sst>
 </file>
@@ -4304,23 +4304,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4332,6 +4315,23 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4590,7 +4590,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -16219,7 +16219,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16243,58 +16243,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+    </row>
+    <row r="2" spans="1:23" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
         <v>1198</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-    </row>
-    <row r="2" spans="1:23" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
     </row>
     <row r="3" spans="1:23" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
@@ -16430,18 +16430,18 @@
       <c r="E5" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="72" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="78" t="s">
         <v>520</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="68" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="58" t="s">
         <v>520</v>
       </c>
@@ -16469,26 +16469,26 @@
       <c r="T5" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="U5" s="68" t="s">
+      <c r="U5" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="V5" s="69"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="D6" s="73" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="75" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E6" s="76" t="s">
         <v>527</v>
       </c>
       <c r="F6" s="54" t="s">
@@ -16509,28 +16509,28 @@
       <c r="K6" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="76" t="s">
         <v>528</v>
       </c>
-      <c r="M6" s="73" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70" t="s">
+      <c r="M6" s="75" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="76" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q6" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="R6" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="S6" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="T6" s="76" t="s">
         <v>1195</v>
-      </c>
-      <c r="Q6" s="73" t="s">
-        <v>529</v>
-      </c>
-      <c r="R6" s="70" t="s">
-        <v>530</v>
-      </c>
-      <c r="S6" s="73" t="s">
-        <v>531</v>
-      </c>
-      <c r="T6" s="70" t="s">
-        <v>1196</v>
       </c>
       <c r="U6" s="54" t="s">
         <v>525</v>
@@ -16542,10 +16542,10 @@
     </row>
     <row r="7" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="54">
         <v>1</v>
       </c>
@@ -16564,15 +16564,15 @@
       <c r="K7" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="71"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="77"/>
       <c r="U7" s="54">
         <v>1</v>
       </c>
@@ -16583,10 +16583,10 @@
     </row>
     <row r="8" spans="1:23" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="67"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="54">
         <v>2</v>
       </c>
@@ -16605,15 +16605,15 @@
       <c r="K8" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="71"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="77"/>
       <c r="U8" s="54">
         <v>2</v>
       </c>
@@ -16624,10 +16624,10 @@
     </row>
     <row r="9" spans="1:23" ht="98" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="54">
         <v>3</v>
       </c>
@@ -16642,15 +16642,15 @@
       <c r="K9" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="71"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="77"/>
       <c r="U9" s="54">
         <v>3</v>
       </c>
@@ -16661,10 +16661,10 @@
     </row>
     <row r="10" spans="1:23" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="67"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="54">
         <v>4</v>
       </c>
@@ -16675,15 +16675,15 @@
       <c r="I10" s="59"/>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="71"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="77"/>
       <c r="U10" s="54"/>
       <c r="V10" s="54"/>
       <c r="W10" s="11"/>
@@ -16715,19 +16715,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="H4:I4"/>
@@ -16741,6 +16728,19 @@
     <mergeCell ref="P6:P10"/>
     <mergeCell ref="Q6:Q10"/>
     <mergeCell ref="S6:S10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20786,7 +20786,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -20896,7 +20896,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="55"/>
       <c r="M3" s="56" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="N3" s="62" t="s">
         <v>26</v>
@@ -20945,7 +20945,7 @@
         <v>1192</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>18</v>
